--- a/downloaded_files/EPES301_Tutorial-35429.xlsx
+++ b/downloaded_files/EPES301_Tutorial-35429.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>ahmed mohamed fouad saleh</x:t>
   </x:si>
   <x:si>
+    <x:t>4230140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد نبيل احمد سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Nabil</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220164</x:t>
   </x:si>
   <x:si>
@@ -60,15 +69,6 @@
     <x:t>Belal Hatem Fawzi Anany</x:t>
   </x:si>
   <x:si>
-    <x:t>1220236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسين احمد عفيفى السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hussein Ahmed Afify Elsayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220330</x:t>
   </x:si>
   <x:si>
@@ -96,6 +96,15 @@
     <x:t>Zeyad Ahmed Mahmoud Abdelbaky Osman</x:t>
   </x:si>
   <x:si>
+    <x:t>1220172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساره عمرو احمد حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sarah Amro Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220119</x:t>
   </x:si>
   <x:si>
@@ -114,6 +123,15 @@
     <x:t>Shady Ashraf Mohamed Samy</x:t>
   </x:si>
   <x:si>
+    <x:t>1220065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عبدالفتاح عبدالرحمن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman mohamed abdelfatah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220128</x:t>
   </x:si>
   <x:si>
@@ -148,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Lela Assem Ibrahim Hassa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد خالد السيد عزمى يوسف السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Khalid Elsayed Azmy Yousef Elsayed</x:t>
   </x:si>
   <x:si>
     <x:t>1220201</x:t>
@@ -314,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -614,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -624,7 +633,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.830625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="54.720625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -737,7 +746,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6651319444</x:v>
+        <x:v>45928.9392573727</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -769,7 +778,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.419581794</x:v>
+        <x:v>45906.6651319444</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -801,7 +810,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4194080671</x:v>
+        <x:v>45907.419581794</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -929,7 +938,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45928.73480625</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -961,7 +970,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4149915509</x:v>
+        <x:v>45928.7053158912</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -993,7 +1002,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45907.4149915509</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1025,7 +1034,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4183795949</x:v>
+        <x:v>45928.7418065972</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1057,7 +1066,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1089,7 +1098,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4183795949</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1121,7 +1130,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4143855324</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1153,7 +1162,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4193753472</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1185,7 +1194,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45907.4193753472</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1213,9 +1222,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1238,16 +1249,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1296,6 +1305,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45906.6647042824</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES301_Tutorial-35429.xlsx
+++ b/downloaded_files/EPES301_Tutorial-35429.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Belal Hatem Fawzi Anany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بلال عبدالله فوزى حموده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bellal Abdel Allah Fawzy</x:t>
   </x:si>
   <x:si>
     <x:t>1220330</x:t>
@@ -323,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -623,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -842,7 +851,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.417281713</x:v>
+        <x:v>45929.2788028588</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -874,7 +883,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4188942477</x:v>
+        <x:v>45907.417281713</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -906,7 +915,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4186757755</x:v>
+        <x:v>45907.4188942477</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -938,7 +947,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45928.73480625</x:v>
+        <x:v>45907.4186757755</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -970,7 +979,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45928.7053158912</x:v>
+        <x:v>45928.73480625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1002,7 +1011,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4149915509</x:v>
+        <x:v>45928.7053158912</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1034,7 +1043,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45928.7418065972</x:v>
+        <x:v>45907.4149915509</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1066,7 +1075,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45928.7418065972</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1098,7 +1107,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4183795949</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1130,7 +1139,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.4183795949</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1162,7 +1171,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1194,7 +1203,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4193753472</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1226,7 +1235,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45907.4193753472</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1254,9 +1263,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1279,16 +1290,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1337,6 +1346,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45906.6647042824</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES301_Tutorial-35429.xlsx
+++ b/downloaded_files/EPES301_Tutorial-35429.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد فؤاد محمد صالح</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed fouad saleh</x:t>
+    <x:t>Ahmed Mohamed Fouad Mohamed Saleh</x:t>
   </x:si>
   <x:si>
     <x:t>4230140</x:t>
